--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>702329.4657222347</v>
+        <v>704580.2252392349</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159.0347330949086</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="C5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>205.5178444382804</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>78.74721279771917</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>86.48406825923597</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,58 +1145,58 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>19.84004947482875</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>120.0500723064956</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1367,11 +1367,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.8744488148399</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>103.3786409366655</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U14" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>97.83533088294783</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>48.28312463522762</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1898,13 +1898,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>74.95904355882617</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,13 +1938,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>56.8962533580755</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>103.7035670991123</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>56.17030901074568</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,20 +2789,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2871,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>24.56429142381676</v>
       </c>
       <c r="T30" t="n">
-        <v>133.0738757325525</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>88.46061606973225</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,59 +3269,59 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.7733550620194</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>97.83533088294783</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>13.94347069460048</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4340,7 +4340,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
         <v>224.0352098159517</v>
@@ -4568,7 +4568,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
         <v>176.2910403306274</v>
@@ -4607,10 +4607,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>574.3134015434382</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4653,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>734.7137330468227</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>561.2963884974915</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,10 +4805,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4844,10 +4844,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
-        <v>415.1460457653264</v>
-      </c>
       <c r="N9" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="V9" t="n">
-        <v>16.44142755506243</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W9" t="n">
-        <v>16.44142755506243</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5045,7 +5045,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5078,13 +5078,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>406.8838132313431</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="C12" t="n">
-        <v>446.2622584721643</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="D12" t="n">
-        <v>446.2622584721643</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="E12" t="n">
-        <v>446.2622584721643</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F12" t="n">
-        <v>299.7277004990493</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G12" t="n">
-        <v>160.9968750816648</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>47.62773948924415</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5157,13 +5157,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>717.6485081201262</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>510.0547258592369</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>302.4609435983476</v>
       </c>
     </row>
     <row r="13">
@@ -5191,10 +5191,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,46 +5282,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>204.697218590109</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="D15" t="n">
-        <v>204.697218590109</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E15" t="n">
-        <v>204.697218590109</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F15" t="n">
-        <v>204.697218590109</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>65.96639317272454</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5385,22 +5385,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.697218590109</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5534,22 +5534,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5698,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>362.0174894886673</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>215.4829315155523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>76.75210609816779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5838,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>657.1194829915109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>421.9673747597683</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>178.5185981156682</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X24" t="n">
-        <v>178.5185981156682</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.5185981156682</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6163,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>879.1508727409195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6446,7 +6446,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>421.0696464340549</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C30" t="n">
-        <v>421.0696464340549</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D30" t="n">
-        <v>272.1352367728036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>939.2447399310233</v>
       </c>
       <c r="T30" t="n">
-        <v>656.2217546657976</v>
+        <v>737.0581452897893</v>
       </c>
       <c r="U30" t="n">
-        <v>656.2217546657976</v>
+        <v>737.0581452897893</v>
       </c>
       <c r="V30" t="n">
-        <v>421.0696464340549</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W30" t="n">
-        <v>421.0696464340549</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X30" t="n">
-        <v>421.0696464340549</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y30" t="n">
-        <v>421.0696464340549</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>726.8597789024521</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>498.6361606388412</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V39" t="n">
-        <v>263.4840524070985</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W39" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
         <v>199.2900309704538</v>
@@ -7400,7 +7400,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7415,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7442,19 +7442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X41" t="n">
-        <v>199.2900309704538</v>
-      </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>723.2478112046895</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7527,13 +7527,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7652,16 +7652,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7731,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>224.7893424687375</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7988,10 +7988,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8301,16 +8301,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>212.7243290316435</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,10 +8693,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10917,10 +10917,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11391,10 +11391,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,13 +22550,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>13.67376589340711</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>46.42735402472917</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>149.1651971824026</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,22 +22863,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>68.69785276691958</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>13.67376589340716</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>206.1013326061461</v>
       </c>
       <c r="V9" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23352,13 +23352,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>58.52218403657518</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,10 +23397,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>148.3163422242541</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23431,13 +23431,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795442</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
-        <v>242.1346420369061</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>74.87316810536791</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>63.95231960126884</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,13 +23625,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>246.9027416247241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>91.57414009104117</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,13 +23826,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,16 +24054,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>55.33919087842096</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24272,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>195.8925415817688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,10 +24291,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>88.15231205638034</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>122.2378149818625</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>258.4694244608343</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>33.22632384066939</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>16.10061421062353</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24646,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24759,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>147.1188796800211</v>
       </c>
       <c r="T30" t="n">
-        <v>67.09085296226914</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>23.77482816676421</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,16 +25157,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,16 +25199,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>2.391373632802242</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>270.8624047773015</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25436,13 +25436,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>110.1833421426564</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,16 +25682,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>74.87316810536791</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>334.1218923309199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,13 +25910,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>110.3488012740662</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>191.829514508877</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434190.6142153856</v>
+        <v>434190.6142153855</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434190.6142153855</v>
+        <v>434190.6142153856</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457358.664076667</v>
+        <v>457358.6640766671</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457358.664076667</v>
+        <v>457358.6640766669</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434190.6142153855</v>
+        <v>434190.6142153856</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>173533.4060184248</v>
+      </c>
+      <c r="C2" t="n">
         <v>173533.4060184247</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>173533.4060184247</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173533.4060184247</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="C4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="D4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048259</v>
       </c>
       <c r="E4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="F4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.582499173</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="P4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547.64573061742</v>
+        <v>2810.479124404868</v>
       </c>
       <c r="C6" t="n">
-        <v>71421.4023123073</v>
+        <v>71684.23570609468</v>
       </c>
       <c r="D6" t="n">
-        <v>71421.40231230733</v>
+        <v>71684.23570609468</v>
       </c>
       <c r="E6" t="n">
-        <v>105049.0023123073</v>
+        <v>105311.8357060947</v>
       </c>
       <c r="F6" t="n">
-        <v>105049.0023123072</v>
+        <v>105311.8357060946</v>
       </c>
       <c r="G6" t="n">
-        <v>99364.41974905714</v>
+        <v>99641.44554736382</v>
       </c>
       <c r="H6" t="n">
-        <v>109093.4627232242</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="I6" t="n">
-        <v>109093.4627232242</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="J6" t="n">
-        <v>55320.95183301474</v>
+        <v>55597.9776313215</v>
       </c>
       <c r="K6" t="n">
-        <v>109093.4627232242</v>
+        <v>109370.488521531</v>
       </c>
       <c r="L6" t="n">
-        <v>109093.4627232242</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="M6" t="n">
-        <v>109093.4627232242</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="N6" t="n">
-        <v>109093.4627232241</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="O6" t="n">
-        <v>105049.0023123073</v>
+        <v>105311.8357060947</v>
       </c>
       <c r="P6" t="n">
-        <v>105049.0023123073</v>
+        <v>105311.8357060947</v>
       </c>
     </row>
   </sheetData>
@@ -34708,10 +34708,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -35021,16 +35021,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35255,19 +35255,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>70.5902951096252</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35662,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>148.1480627106907</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37637,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -38020,7 +38020,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38111,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704580.2252392349</v>
+        <v>705364.3711772636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -662,67 +664,67 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>159.0347330949086</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -896,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>56.48516894094544</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>86.48406825923597</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>85.80043703055078</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>19.84004947482875</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,17 +1369,17 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,16 +1463,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>145.1966826238596</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.3786409366655</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,73 +1609,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>97.83533088294783</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.95904355882617</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>40.47627913313517</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>12.162665399307</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,49 +2250,49 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>81.0053776549329</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,26 +2791,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>24.56429142381676</v>
+        <v>105.3389094678265</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>88.46061606973225</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="34">
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>45.02776816791432</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7733550620194</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>33.51003907654566</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,67 +3745,67 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>114.2571612494427</v>
       </c>
       <c r="C42" t="n">
-        <v>97.83533088294783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,58 +3988,58 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.11569190233641</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.0825720953742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>345.2979091154422</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.0317117311527</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>73.49715375803763</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>734.7137330468227</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>561.2963884974915</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.1097938562575</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="7">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4808,7 +4810,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C11" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D11" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,7 +5044,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
         <v>176.2910403306274</v>
@@ -5078,10 +5080,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
         <v>406.8838132313431</v>
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>302.4609435983476</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="C12" t="n">
-        <v>302.4609435983476</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="D12" t="n">
-        <v>302.4609435983476</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="E12" t="n">
-        <v>302.4609435983476</v>
+        <v>366.6447502634417</v>
       </c>
       <c r="F12" t="n">
-        <v>155.9263856252326</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
         <v>822.0713777531216</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="W12" t="n">
-        <v>717.6485081201262</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="X12" t="n">
-        <v>510.0547258592369</v>
+        <v>574.2385325243309</v>
       </c>
       <c r="Y12" t="n">
-        <v>302.4609435983476</v>
+        <v>366.6447502634417</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,7 +5281,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
         <v>176.2910403306274</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C15" t="n">
-        <v>723.2478112046895</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D15" t="n">
-        <v>574.3134015434382</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E15" t="n">
-        <v>415.0759465379826</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F15" t="n">
-        <v>268.5413885648676</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
         <v>16.44142755506243</v>
@@ -5358,16 +5360,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5388,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5433,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.171420448546</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,13 +5700,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>284.5332603973924</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y24" t="n">
-        <v>76.77296163243852</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6406,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6440,19 +6442,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>939.2447399310233</v>
+        <v>857.6542166542458</v>
       </c>
       <c r="T30" t="n">
-        <v>737.0581452897893</v>
+        <v>655.4676220130118</v>
       </c>
       <c r="U30" t="n">
-        <v>737.0581452897893</v>
+        <v>655.4676220130118</v>
       </c>
       <c r="V30" t="n">
-        <v>501.9060370580465</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="W30" t="n">
-        <v>501.9060370580465</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="X30" t="n">
-        <v>501.9060370580465</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="Y30" t="n">
-        <v>501.9060370580465</v>
+        <v>420.3155137812691</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>663.1165603443104</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>434.8929420806995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="37">
@@ -7193,13 +7195,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7417,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>822.0713777531216</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C42" t="n">
-        <v>723.2478112046895</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D42" t="n">
-        <v>574.3134015434382</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7527,13 +7529,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7652,13 +7654,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7679,19 +7681,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D45" t="n">
-        <v>64.21544693014803</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="46">
@@ -7840,7 +7842,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,10 +8458,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8781,7 +8783,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>339.8103375922893</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11385,7 +11387,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>13.67376589340711</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472917</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="6">
@@ -22863,19 +22865,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>80.85834822226519</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.67376589340716</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -23024,7 +23026,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>61.64462853408797</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>206.1013326061461</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23349,16 +23351,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>54.968046070962</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23397,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>148.3163422242541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23431,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>51.30969674795442</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>74.87316810536791</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.8565834318405</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23735,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.57414009104117</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>182.6195704309962</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4824150560939</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>110.9575212988316</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>88.15231205638034</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24443,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>33.22632384066939</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>320.3175739611883</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24761,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>147.1188796800211</v>
+        <v>66.34426163601134</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>23.77482816676421</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="34">
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25132,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>112.6173122874866</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>2.391373632802242</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>124.1350413788553</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,10 +25523,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>110.1833421426564</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>52.27602240042459</v>
       </c>
       <c r="C42" t="n">
-        <v>74.87316810536791</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25716,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>110.3488012740662</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>9.280940949078669</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26010,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434190.6142153855</v>
+        <v>434190.6142153856</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434190.6142153856</v>
+        <v>434190.6142153857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434190.6142153856</v>
+        <v>434190.6142153855</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457358.6640766669</v>
+        <v>457358.6640766671</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457358.6640766669</v>
+        <v>457358.6640766671</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>173533.4060184247</v>
+      </c>
+      <c r="C2" t="n">
         <v>173533.4060184248</v>
       </c>
-      <c r="C2" t="n">
-        <v>173533.4060184247</v>
-      </c>
       <c r="D2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184248</v>
@@ -26350,10 +26352,10 @@
         <v>182776.7397844656</v>
       </c>
       <c r="O2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
     </row>
     <row r="3">
@@ -26418,10 +26420,10 @@
         <v>55726.0853704826</v>
       </c>
       <c r="C4" t="n">
-        <v>55726.0853704826</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="D4" t="n">
-        <v>55726.08537048259</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="E4" t="n">
         <v>55726.08537048261</v>
@@ -26439,13 +26441,13 @@
         <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>58752.582499173</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
         <v>58752.58249917302</v>
@@ -26454,7 +26456,7 @@
         <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55726.0853704826</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="P4" t="n">
         <v>55726.0853704826</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2810.479124404868</v>
+        <v>2810.479124404803</v>
       </c>
       <c r="C6" t="n">
         <v>71684.23570609468</v>
       </c>
       <c r="D6" t="n">
-        <v>71684.23570609468</v>
+        <v>71684.23570609474</v>
       </c>
       <c r="E6" t="n">
         <v>105311.8357060947</v>
       </c>
       <c r="F6" t="n">
-        <v>105311.8357060946</v>
+        <v>105311.8357060947</v>
       </c>
       <c r="G6" t="n">
         <v>99641.44554736382</v>
@@ -26543,10 +26545,10 @@
         <v>109370.4885215309</v>
       </c>
       <c r="J6" t="n">
-        <v>55597.9776313215</v>
+        <v>55597.97763132145</v>
       </c>
       <c r="K6" t="n">
-        <v>109370.488521531</v>
+        <v>109370.4885215309</v>
       </c>
       <c r="L6" t="n">
         <v>109370.4885215309</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35501,7 +35503,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>197.2140931478448</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705364.3711772636</v>
+        <v>606985.5269811567</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5153935.710276227</v>
+        <v>6904732.469859625</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.54701788709714</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>204.4993614069768</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>56.48516894094544</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>90.87689320356449</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>85.80043703055078</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>104.8641324088567</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.75543250779077</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>145.1966826238596</v>
+        <v>104.1252322629233</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>14.48693373137008</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>24.69913347639149</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>69.16433148862733</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,28 +2162,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>12.162665399307</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0.001083244625445161</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>21.45556623733949</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>136.1693813210201</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.3389094678265</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>230.2038249569697</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.66067414728059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>45.02776816791432</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="37">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>62.35079002715849</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>33.51003907654566</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,64 +3660,64 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>114.2571612494427</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>35.95090498785356</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.11569190233641</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4354,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W2" t="n">
-        <v>245.4092504478133</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X2" t="n">
-        <v>37.81546818692397</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>218.9960269993568</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>218.9960269993568</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>218.9960269993568</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>105.6268914069362</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4427,34 +4427,34 @@
         <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4512,28 +4512,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>238.4637496986098</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>223.0064390772613</v>
       </c>
       <c r="I5" t="n">
         <v>16.44142755506243</v>
@@ -4570,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W5" t="n">
-        <v>406.8838132313431</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X5" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379.2691667366082</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C6" t="n">
-        <v>379.2691667366082</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D6" t="n">
-        <v>379.2691667366082</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>220.0317117311527</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>73.49715375803763</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.2622584721643</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="C9" t="n">
-        <v>446.2622584721643</v>
+        <v>541.6949824024424</v>
       </c>
       <c r="D9" t="n">
-        <v>359.5951503604969</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="E9" t="n">
-        <v>359.5951503604969</v>
+        <v>392.7605727411911</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4895,10 +4895,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4922,13 +4922,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>716.1480116835694</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>716.1480116835694</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>63.94135112442973</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>366.6447502634417</v>
+        <v>301.706810945562</v>
       </c>
       <c r="C12" t="n">
-        <v>366.6447502634417</v>
+        <v>301.706810945562</v>
       </c>
       <c r="D12" t="n">
-        <v>366.6447502634417</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E12" t="n">
-        <v>366.6447502634417</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F12" t="n">
-        <v>220.1101922903266</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5123,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
         <v>822.0713777531216</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>574.2385325243309</v>
+        <v>716.8943754673405</v>
       </c>
       <c r="U12" t="n">
-        <v>574.2385325243309</v>
+        <v>716.8943754673405</v>
       </c>
       <c r="V12" t="n">
-        <v>574.2385325243309</v>
+        <v>509.3005932064513</v>
       </c>
       <c r="W12" t="n">
-        <v>574.2385325243309</v>
+        <v>301.706810945562</v>
       </c>
       <c r="X12" t="n">
-        <v>574.2385325243309</v>
+        <v>301.706810945562</v>
       </c>
       <c r="Y12" t="n">
-        <v>366.6447502634417</v>
+        <v>301.706810945562</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="E14" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="F14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5284,7 +5284,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.07469395038575</v>
+        <v>589.5289758191096</v>
       </c>
       <c r="C15" t="n">
-        <v>31.07469395038575</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="D15" t="n">
-        <v>31.07469395038575</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="E15" t="n">
-        <v>31.07469395038575</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F15" t="n">
-        <v>31.07469395038575</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
         <v>16.44142755506243</v>
@@ -5360,22 +5360,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>797.1227580799989</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>797.1227580799989</v>
       </c>
       <c r="V15" t="n">
-        <v>406.8838132313431</v>
+        <v>797.1227580799989</v>
       </c>
       <c r="W15" t="n">
-        <v>406.8838132313431</v>
+        <v>797.1227580799989</v>
       </c>
       <c r="X15" t="n">
-        <v>199.2900309704538</v>
+        <v>797.1227580799989</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.2900309704538</v>
+        <v>589.5289758191096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>374.4094876003358</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>227.8749296272208</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>89.14410420983629</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="19">
@@ -5703,10 +5703,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>485.167420504237</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="C21" t="n">
-        <v>521.2549444941228</v>
+        <v>158.0130627140876</v>
       </c>
       <c r="D21" t="n">
-        <v>521.2549444941228</v>
+        <v>158.0130627140876</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0130627140876</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0130627140876</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28223729670307</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>326.218815629338</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>179.684257656223</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>40.95343223883847</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>75.41817578802664</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.41817578802664</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="25">
@@ -6126,10 +6126,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>420.3155137812691</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>420.3155137812691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>857.6542166542458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>655.4676220130118</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>655.4676220130118</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>420.3155137812691</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>420.3155137812691</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>420.3155137812691</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>420.3155137812691</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6739,13 +6739,13 @@
         <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="X32" t="n">
         <v>495.259035872464</v>
       </c>
-      <c r="X32" t="n">
-        <v>251.810259228364</v>
-      </c>
       <c r="Y32" t="n">
-        <v>251.810259228364</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y35" t="n">
-        <v>761.6974622895962</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>554.4520179977666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>554.4520179977666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7080,16 +7080,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3950508204554</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3950508204554</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
         <v>158.0119685275972</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7292,13 +7292,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>499.0663215028962</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C42" t="n">
-        <v>324.6132922217692</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7493,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7526,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7842,16 +7842,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>134.4691888741278</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8309,13 +8309,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8932,10 +8932,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11150,10 +11150,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>333.52274139514</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>46.42735402472917</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22877,16 +22877,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>80.85834822226519</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>173.6629242394455</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23102,16 +23102,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>61.64462853408797</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>333.5227413951401</v>
       </c>
       <c r="E11" t="n">
-        <v>200.9102526910243</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>54.968046070962</v>
+        <v>96.03949643189833</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>52.06643139743875</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>122.8565834318405</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23627,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>175.4655952184301</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>43.07111274786914</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23864,10 +23864,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23943,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,28 +24050,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>145.4824150560939</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.234360991871</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.9575212988316</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,16 +24293,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>90.77987799915698</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>115.5256018398995</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,13 +24682,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>66.34426163601134</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>171.0220216300238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>379.4685256062839</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>112.6173122874866</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="37">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>110.3577089611572</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>124.1350413788553</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25678,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.27602240042459</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>111.4941605767852</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25766,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>9.280940949078669</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>65.32175003622348</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>434190.6142153856</v>
+        <v>1040822.39764869</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434190.6142153855</v>
+        <v>1040822.39764869</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434190.6142153856</v>
+        <v>1040822.39764869</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434190.6142153857</v>
+        <v>434190.6142153856</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434190.6142153855</v>
+        <v>434190.6142153856</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457358.664076667</v>
+        <v>457358.6640766669</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457358.6640766671</v>
+        <v>457358.664076667</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184247</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>344263.9595179308</v>
+      </c>
+      <c r="C4" t="n">
+        <v>344263.9595179308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>344263.9595179308</v>
+      </c>
+      <c r="E4" t="n">
         <v>55726.0853704826</v>
-      </c>
-      <c r="C4" t="n">
-        <v>55726.08537048261</v>
-      </c>
-      <c r="D4" t="n">
-        <v>55726.08537048261</v>
-      </c>
-      <c r="E4" t="n">
-        <v>55726.08537048261</v>
       </c>
       <c r="F4" t="n">
         <v>55726.08537048261</v>
@@ -26456,10 +26456,10 @@
         <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
+        <v>55726.0853704826</v>
+      </c>
+      <c r="P4" t="n">
         <v>55726.08537048261</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2810.479124404803</v>
+        <v>-7687.827616112154</v>
       </c>
       <c r="C6" t="n">
-        <v>71684.23570609468</v>
+        <v>61185.92896557772</v>
       </c>
       <c r="D6" t="n">
-        <v>71684.23570609474</v>
+        <v>61185.92896557766</v>
       </c>
       <c r="E6" t="n">
-        <v>105311.8357060947</v>
+        <v>92673.67355123417</v>
       </c>
       <c r="F6" t="n">
-        <v>105311.8357060947</v>
+        <v>92673.67355123415</v>
       </c>
       <c r="G6" t="n">
-        <v>99641.44554736382</v>
+        <v>87423.43492732338</v>
       </c>
       <c r="H6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149042</v>
       </c>
       <c r="I6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149048</v>
       </c>
       <c r="J6" t="n">
-        <v>55597.97763132145</v>
+        <v>43379.96701128102</v>
       </c>
       <c r="K6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149045</v>
       </c>
       <c r="L6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149049</v>
       </c>
       <c r="M6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149048</v>
       </c>
       <c r="N6" t="n">
-        <v>109370.4885215309</v>
+        <v>97152.47790149045</v>
       </c>
       <c r="O6" t="n">
-        <v>105311.8357060947</v>
+        <v>92673.67355123417</v>
       </c>
       <c r="P6" t="n">
-        <v>105311.8357060947</v>
+        <v>92673.67355123415</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.849614964317936</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.976528163429094</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>114.8058025737399</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>93.55107118671074</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>146.8308507520629</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>68.603747608882</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34795,10 +34795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35029,13 +35029,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,7 +36448,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37870,10 +37870,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
